--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>同步时间</t>
   </si>
@@ -183,12 +183,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>不寻常</t>
-  </si>
-  <si>
-    <t>通常</t>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
@@ -344,13 +338,85 @@
   </si>
   <si>
     <t>vcMandOrder_name</t>
+  </si>
+  <si>
+    <t>日度</t>
+  </si>
+  <si>
+    <t>周度</t>
+  </si>
+  <si>
+    <t>月度</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给收容数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工厂-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工厂-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给品番</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +460,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -454,18 +528,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,12 +547,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -790,113 +867,119 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="9"/>
+    <col min="10" max="13" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="15.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="13.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="17.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="14.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
     </row>
-    <row r="2" spans="1:50" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -904,15 +987,15 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>9</v>
@@ -947,88 +1030,88 @@
       <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="W2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1059,7 +1142,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$C$2:$C$3</xm:f>
+            <xm:f>Sheet2!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
@@ -1080,7 +1163,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,10 +1190,10 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1121,10 +1204,10 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1134,10 +1217,16 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1157,60 +1246,60 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1219,10 +1308,10 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1232,10 +1321,10 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1275,241 +1364,241 @@
       <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="V3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="W3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="X3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="Y3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Z3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="AA3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AB3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AC3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AD3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AE3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AF3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AG3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AH3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AI3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AK3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AL3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AM3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AN3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AO3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AP3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AR3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AS3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AT3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AU3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AV3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AW3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AX3" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -15,238 +15,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t>变更事项</t>
+  </si>
+  <si>
+    <t>车种代码</t>
+  </si>
+  <si>
+    <t>收货方</t>
+  </si>
+  <si>
+    <t>替代品番</t>
+  </si>
+  <si>
+    <t>内外区分</t>
+  </si>
+  <si>
+    <t>OE=SP</t>
+  </si>
+  <si>
+    <t>号旧区分</t>
+  </si>
+  <si>
+    <t>旧型年限生产区分</t>
+  </si>
+  <si>
+    <t>实施年月(年限)</t>
+  </si>
+  <si>
+    <t>供应商使用开始</t>
+  </si>
+  <si>
+    <t>供应商使用结束</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>箱种</t>
+  </si>
+  <si>
+    <t>内制工程</t>
+  </si>
+  <si>
+    <t>通过工程</t>
+  </si>
+  <si>
+    <t>前工程</t>
+  </si>
+  <si>
+    <t>前工程通过时间</t>
+  </si>
+  <si>
+    <t>自工程出货时间</t>
+  </si>
+  <si>
+    <t>单据区分</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>订货方式</t>
+  </si>
+  <si>
+    <t>强制订货</t>
+  </si>
+  <si>
+    <t>单据区分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制订货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>日度</t>
+  </si>
+  <si>
+    <t>周度</t>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给品番</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护区分</t>
+  </si>
+  <si>
+    <t>品番-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商包装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>供应商包装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长(mm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽(mm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高(mm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积(m³)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>同步时间</t>
-  </si>
-  <si>
-    <t>变更事项</t>
-  </si>
-  <si>
-    <t>包装工厂</t>
-  </si>
-  <si>
-    <t>品名(英文)</t>
-  </si>
-  <si>
-    <t>车种代码</t>
-  </si>
-  <si>
-    <t>收货方</t>
-  </si>
-  <si>
-    <t>替代品番</t>
-  </si>
-  <si>
-    <t>内外区分</t>
-  </si>
-  <si>
-    <t>OE=SP</t>
-  </si>
-  <si>
-    <t>号旧区分</t>
-  </si>
-  <si>
-    <t>旧型年限生产区分</t>
-  </si>
-  <si>
-    <t>实施年月(年限)</t>
-  </si>
-  <si>
-    <t>供应商编号</t>
-  </si>
-  <si>
-    <t>供应商使用开始</t>
-  </si>
-  <si>
-    <t>供应商使用结束</t>
-  </si>
-  <si>
-    <t>供应商名称</t>
-  </si>
-  <si>
-    <t>箱种</t>
-  </si>
-  <si>
-    <t>内制工程</t>
-  </si>
-  <si>
-    <t>通过工程</t>
-  </si>
-  <si>
-    <t>前工程</t>
-  </si>
-  <si>
-    <t>前工程通过时间</t>
-  </si>
-  <si>
-    <t>自工程出货时间</t>
-  </si>
-  <si>
-    <t>单据区分</t>
-  </si>
-  <si>
-    <t>备注1</t>
-  </si>
-  <si>
-    <t>备注2</t>
-  </si>
-  <si>
-    <t>订货方式</t>
-  </si>
-  <si>
-    <t>强制订货</t>
-  </si>
-  <si>
-    <t>单据区分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订货方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制订货</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>日度</t>
-  </si>
-  <si>
-    <t>周度</t>
-  </si>
-  <si>
-    <t>月度</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>工区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工区-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工区-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补给品番</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护区分</t>
-  </si>
-  <si>
-    <t>品番-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出荷场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商包装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商包装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注工场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>长(mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽(mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高(mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积(m³)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文品名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -675,179 +675,177 @@
     <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.75" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +870,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AT2:AT1048576</xm:sqref>
+          <xm:sqref>AR2:AR1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AU2:AU1048576</xm:sqref>
+          <xm:sqref>AS2:AS1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AV2:AV1048576</xm:sqref>
+          <xm:sqref>AT2:AT1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -897,79 +895,79 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -23,208 +23,224 @@
     <t>车种代码</t>
   </si>
   <si>
+    <t>替代品番</t>
+  </si>
+  <si>
+    <t>OE=SP</t>
+  </si>
+  <si>
+    <t>旧型年限生产区分</t>
+  </si>
+  <si>
+    <t>实施年月(年限)</t>
+  </si>
+  <si>
+    <t>箱种</t>
+  </si>
+  <si>
+    <t>内制工程</t>
+  </si>
+  <si>
+    <t>通过工程</t>
+  </si>
+  <si>
+    <t>前工程</t>
+  </si>
+  <si>
+    <t>前工程通过时间</t>
+  </si>
+  <si>
+    <t>自工程出货时间</t>
+  </si>
+  <si>
+    <t>单据区分</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>订货方式</t>
+  </si>
+  <si>
+    <t>强制订货</t>
+  </si>
+  <si>
+    <t>单据区分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制订货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>日度</t>
+  </si>
+  <si>
+    <t>周度</t>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护区分</t>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商包装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>供应商包装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长(mm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽(mm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高(mm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积(m³)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文品名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给品番</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>收货方</t>
-  </si>
-  <si>
-    <t>替代品番</t>
-  </si>
-  <si>
-    <t>内外区分</t>
-  </si>
-  <si>
-    <t>OE=SP</t>
-  </si>
-  <si>
-    <t>号旧区分</t>
-  </si>
-  <si>
-    <t>旧型年限生产区分</t>
-  </si>
-  <si>
-    <t>实施年月(年限)</t>
-  </si>
-  <si>
-    <t>供应商使用开始</t>
-  </si>
-  <si>
-    <t>供应商使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号旧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>供应商名称</t>
-  </si>
-  <si>
-    <t>箱种</t>
-  </si>
-  <si>
-    <t>内制工程</t>
-  </si>
-  <si>
-    <t>通过工程</t>
-  </si>
-  <si>
-    <t>前工程</t>
-  </si>
-  <si>
-    <t>前工程通过时间</t>
-  </si>
-  <si>
-    <t>自工程出货时间</t>
-  </si>
-  <si>
-    <t>单据区分</t>
-  </si>
-  <si>
-    <t>备注1</t>
-  </si>
-  <si>
-    <t>备注2</t>
-  </si>
-  <si>
-    <t>订货方式</t>
-  </si>
-  <si>
-    <t>强制订货</t>
-  </si>
-  <si>
-    <t>单据区分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订货方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制订货</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>日度</t>
-  </si>
-  <si>
-    <t>周度</t>
-  </si>
-  <si>
-    <t>工区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工区-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工区-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补给品番</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护区分</t>
-  </si>
-  <si>
-    <t>品番-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出荷场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商包装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>供应商包装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注工场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>长(mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽(mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高(mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积(m³)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装工场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文品名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -232,21 +248,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通常</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>√</t>
+    <t>供应商-开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商-结束</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +352,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +368,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,6 +387,311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="五角星 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="133350"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="五角星 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="133350"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="五角星 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="133350"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="五角星 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17059275" y="133350"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="五角星 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="133350"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,15 +983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -682,7 +1004,8 @@
     <col min="18" max="18" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="1" customWidth="1"/>
     <col min="23" max="24" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -704,153 +1027,154 @@
   <sheetData>
     <row r="1" spans="1:48" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -902,72 +1226,72 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15075" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="导入说明" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
   <si>
     <t>变更事项</t>
   </si>
   <si>
-    <t>车种代码</t>
-  </si>
-  <si>
     <t>替代品番</t>
   </si>
   <si>
@@ -201,58 +202,163 @@
     <t>通常</t>
   </si>
   <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文品名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给品番</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番-使用结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号旧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商-开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商-结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手配文件导入实例：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2021/03/11</t>
+  </si>
+  <si>
+    <t>设变新设</t>
+  </si>
+  <si>
+    <t>TFTM</t>
+  </si>
+  <si>
+    <t>APC06</t>
+  </si>
+  <si>
+    <t>2015/12/18</t>
+  </si>
+  <si>
+    <t>9999/12/31</t>
+  </si>
+  <si>
+    <t>外注</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>旧型</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>暂无图像.JPG</t>
+  </si>
+  <si>
+    <t>040055210BBB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssasss.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>040071Z90200</t>
+  </si>
+  <si>
+    <t>SENSOR, SIDE AIR BAG</t>
+  </si>
+  <si>
+    <t>266B</t>
+  </si>
+  <si>
+    <t>2018/03/01</t>
+  </si>
+  <si>
+    <t>9H</t>
+  </si>
+  <si>
+    <t>2021/03/01</t>
+  </si>
+  <si>
+    <t>号口</t>
+  </si>
+  <si>
+    <t>广州南沙电装</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>040080510N00</t>
+  </si>
+  <si>
+    <t>SHEET KIT,FLOOR SILENCER</t>
+  </si>
+  <si>
+    <t>339B</t>
+  </si>
+  <si>
+    <t>2018/03/20</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春一汽实业</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>包装工场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>特殊</t>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装工场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文品名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补给品番</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番-使用开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番-使用结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内外</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>号旧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商-开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商-结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +407,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +450,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +508,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,11 +524,41 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -393,35 +579,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="五角星 2"/>
+        <xdr:cNvPr id="7" name="矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2524125" y="133350"/>
-          <a:ext cx="152400" cy="161925"/>
+          <a:off x="123824" y="1438275"/>
+          <a:ext cx="11296650" cy="3467100"/>
         </a:xfrm>
-        <a:prstGeom prst="star5">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -445,253 +636,1266 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>导入文件说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="五角星 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="133350"/>
-          <a:ext cx="152400" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>新增（以上绿色数据）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="五角星 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5467350" y="133350"/>
-          <a:ext cx="152400" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   a.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>第一列操作类型选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>新增</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>，录入新增手配情报信息，需要保证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>包装工场、补给品番、收货方、供应商代码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>品番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>使用开始</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>按照数据格式录入，不能为空。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="五角星 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17059275" y="133350"/>
-          <a:ext cx="152400" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   b.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>如果录入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>受入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>工区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>收容数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>情报</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>需要保证所对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>开始使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>结束使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>的录入（如果不录入则继承品番有效期），不能为空。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="五角星 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="133350"/>
-          <a:ext cx="152400" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   c.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>箱种体积可以不填写，系统会根据长宽高字段计算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>修改（以上黄色数据）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   a.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>第一列操作类型选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>，请保证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>包装工场、补给品番、收货方、供应商代码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不被修改，可录入编辑其他情报信息。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   b.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果录入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>收容数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>情报</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需要保证所对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>开始使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>结束使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的录入（如果不录入则继承品番有效期），不能为空。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   c.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>箱种体积可以不填写，系统会根据长宽高字段计算</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除（以上红色数据）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   a.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>第一列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作类型选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，请保证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>包装工场、补给品番、收货方、供应商代码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不被修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,9 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -994,7 +2196,7 @@
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -1025,156 +2227,155 @@
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="V1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="AU1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -1216,82 +2417,642 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AV5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="22" max="22" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:48" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+    </row>
+    <row r="4" spans="1:48" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV5" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AT3:AT5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AS3:AS5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AR3:AR5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AQ3:AQ5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3 A5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -585,8 +585,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -598,7 +598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123824" y="1438275"/>
-          <a:ext cx="11296650" cy="3467100"/>
+          <a:ext cx="13725526" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,6 +834,126 @@
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>英文品名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>车型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>内外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][OE=SP][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>号旧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>供应商名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
             <a:t>]</a:t>
           </a:r>
           <a:r>
@@ -1256,7 +1376,245 @@
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>不被修改，可录入编辑其他情报信息。</a:t>
+            <a:t>不被修改，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>英文品名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>车型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][OE=SP][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号旧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>供应商名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不能为空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，可录入编辑其他情报信息。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
             <a:solidFill>
@@ -2422,13 +2780,12 @@
   </sheetPr>
   <dimension ref="A1:AV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="22" max="22" width="10.25" bestFit="1" customWidth="1"/>
   </cols>

--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2.Project file\1.Project\API\SPPSApi\Doc\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263E61B-93D4-4FD6-83DF-3AC5AA20073E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
   <si>
     <t>变更事项</t>
   </si>
@@ -359,13 +365,31 @@
   </si>
   <si>
     <t>车型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OE=SP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>内制</t>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号旧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,13 +587,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,7 +619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2299,7 +2332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2332,9 +2365,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2367,6 +2417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2542,10 +2609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2736,36 +2805,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$5</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>AQ2:AQ1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>AR2:AR1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>AS2:AS1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>AT2:AT1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{355D9822-C78B-439A-A20F-9D706673D746}">
+          <x14:formula1>
+            <xm:f>Sheet2!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF27DF3B-951D-4CDA-BF7D-217089AF4A41}">
+          <x14:formula1>
+            <xm:f>Sheet2!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCE88D33-187F-423B-A4B8-89DA7395501C}">
+          <x14:formula1>
+            <xm:f>Sheet2!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2774,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3289,38 +3376,26 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
+            <xm:f>'C:\Users\Administrator\Desktop\[1QQFS0603_导出信息_20210312124934_000000.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AT3:AT5</xm:sqref>
+          <xm:sqref>A3 A5 AS3:AT5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>AS3:AS5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
+            <xm:f>'C:\Users\Administrator\Desktop\[1QQFS0603_导出信息_20210312124934_000000.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AR3:AR5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
+            <xm:f>'C:\Users\Administrator\Desktop\[1QQFS0603_导出信息_20210312124934_000000.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AQ3:AQ5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3 A5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$5</xm:f>
           </x14:formula1>
@@ -3333,16 +3408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3358,8 +3433,17 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3375,8 +3459,17 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3392,8 +3485,17 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3415,5 +3517,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0603_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2.Project file\1.Project\API\SPPSApi\Doc\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263E61B-93D4-4FD6-83DF-3AC5AA20073E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -389,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +581,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +616,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2365,26 +2359,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2417,23 +2394,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2609,12 +2569,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2626,16 +2584,18 @@
     <col min="8" max="8" width="8.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="1" customWidth="1"/>
-    <col min="23" max="24" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6.75" style="1" bestFit="1" customWidth="1"/>
@@ -2689,52 +2649,52 @@
         <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>34</v>
@@ -2806,53 +2766,53 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$5</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>AQ2:AQ1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>AR2:AR1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>AS2:AS1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>AT2:AT1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{355D9822-C78B-439A-A20F-9D706673D746}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF27DF3B-951D-4CDA-BF7D-217089AF4A41}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCE88D33-187F-423B-A4B8-89DA7395501C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2861,7 +2821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3377,25 +3337,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Administrator\Desktop\[1QQFS0603_导出信息_20210312124934_000000.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3 A5 AS3:AT5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Administrator\Desktop\[1QQFS0603_导出信息_20210312124934_000000.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AR3:AR5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Administrator\Desktop\[1QQFS0603_导出信息_20210312124934_000000.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AQ3:AQ5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$5</xm:f>
           </x14:formula1>
@@ -3408,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
